--- a/data/cs_nodes.xlsx
+++ b/data/cs_nodes.xlsx
@@ -251,9 +251,6 @@
     <t>Patientenbeteiligung</t>
   </si>
   <si>
-    <t>No sustainability level</t>
-  </si>
-  <si>
     <t>SDG 2 Zero Hunger &amp; SDG 11 Sustainable cities and communities</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>Humboldt-Universität zu Berlin &amp; Charité – Universitätsmedizin Berlin &amp; Technische Universität Berlin</t>
+  </si>
+  <si>
+    <t>SDG is to be defined</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1005,25 +1005,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>44</v>
@@ -1038,70 +1038,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -1112,19 +1112,19 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1176,22 +1176,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -1209,7 +1209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,22 +1217,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -1258,20 +1258,20 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1297,20 +1297,20 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1336,22 +1336,22 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1377,20 +1377,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1416,22 +1416,22 @@
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1498,22 +1498,22 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1539,22 +1539,22 @@
         <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1580,22 +1580,22 @@
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1621,22 +1621,22 @@
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1662,22 +1662,22 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1703,22 +1703,22 @@
         <v>52</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1785,22 +1785,22 @@
         <v>56</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1826,22 +1826,22 @@
         <v>57</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -1867,31 +1867,31 @@
         <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>65</v>
@@ -1905,20 +1905,20 @@
         <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1941,22 +1941,22 @@
         <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1979,22 +1979,22 @@
         <v>73</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>

--- a/data/cs_nodes.xlsx
+++ b/data/cs_nodes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Ginkoo</t>
   </si>
   <si>
-    <t xml:space="preserve">Lässt sich vorerst nicht kategorisieren </t>
-  </si>
-  <si>
     <t>Urbane Klima-Gärten: Bildungsinitiative in der Modellregion Berlin</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>Transdisziplinär/Citizen Science</t>
   </si>
   <si>
-    <t>Transdisziplinär</t>
-  </si>
-  <si>
     <t>SDG 4 Quality education</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
   </si>
   <si>
     <t>SDG 3 Good Health and Well-being</t>
-  </si>
-  <si>
-    <t>Transdisziplinäre Forschung, Reallabor</t>
   </si>
   <si>
     <t>s22</t>
@@ -566,6 +557,27 @@
   </si>
   <si>
     <t>SDG is to be defined</t>
+  </si>
+  <si>
+    <t>Transdisciplinary, Reallabor</t>
+  </si>
+  <si>
+    <t>scientists_n</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -696,6 +708,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -978,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -989,15 +1007,15 @@
     <col min="1" max="1" width="10.921875" style="1"/>
     <col min="2" max="3" width="14.07421875" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.765625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.07421875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.61328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="24.23046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.84375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.921875" style="1"/>
+    <col min="5" max="7" width="14.07421875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3828125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.61328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="24.23046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.84375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,132 +1023,147 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="1">
+        <v>142</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="1">
+        <v>142</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="L3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="1">
+        <v>142</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="1">
+        <v>142</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,37 +1171,43 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="102.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="102.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1176,40 +1215,43 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="1">
+        <v>141</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,40 +1259,43 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="1">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>11</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="1">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1258,38 +1303,41 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
+      <c r="F9" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>15</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1297,38 +1345,41 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
+      <c r="F10" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,40 +1387,43 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>11</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1377,38 +1431,41 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>144</v>
+      <c r="F12" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="1">
+        <v>141</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1416,40 +1473,43 @@
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1457,40 +1517,43 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="F14" s="12">
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>11</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1498,40 +1561,43 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1539,40 +1605,43 @@
         <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1580,40 +1649,43 @@
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
         <v>11</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1621,40 +1693,43 @@
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1662,40 +1737,43 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1703,310 +1781,346 @@
         <v>52</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>9</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="L20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>15</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
         <v>11</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>13</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>13</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="F27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/cs_nodes.xlsx
+++ b/data/cs_nodes.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -261,30 +261,6 @@
   </si>
   <si>
     <t>running</t>
-  </si>
-  <si>
-    <r>
-      <t>https://artlaboratory-berlin.org/research/mind-the-fungi/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0052CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.top-ev.de/about/lab/mind-the-fungi/</t>
-    </r>
   </si>
   <si>
     <t>https://www.klima.tu-berlin.de/index.php?show=stadtklima_de_openUCO&amp;lan=en</t>
@@ -514,9 +490,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>is_hub</t>
-  </si>
-  <si>
     <t>bua_uni_involved</t>
   </si>
   <si>
@@ -578,6 +551,27 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>https://artlaboratory-berlin.org/research/mind-the-fungi/; http://www.top-ev.de/about/lab/mind-the-fungi/</t>
+  </si>
+  <si>
+    <t>other_institution</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>subject_area</t>
+  </si>
+  <si>
+    <t>204 Microbiology, Virology and Immunology</t>
+  </si>
+  <si>
+    <t>articles_n</t>
   </si>
 </sst>
 </file>
@@ -671,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,6 +708,10 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,26 +994,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="83" zoomScaleNormal="53" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.921875" style="1"/>
     <col min="2" max="3" width="14.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.765625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="14.07421875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.61328125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="24.23046875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.84375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.921875" style="1"/>
+    <col min="4" max="5" width="10.921875" style="1"/>
+    <col min="6" max="7" width="23.61328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.61328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.3828125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="14.07421875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.23046875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,188 +1026,195 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="1">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>142</v>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="Q2" s="1"/>
+      <c r="S2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="1">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>142</v>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="1">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>142</v>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="1">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>142</v>
+      <c r="F5" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>141</v>
+      <c r="C6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="102.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="102.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1215,43 +1222,43 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>141</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
-        <v>13</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:19" ht="102.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1259,43 +1266,43 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="1">
-        <v>11</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:19" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,41 +1310,41 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1345,41 +1352,41 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>13</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,43 +1394,43 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="1">
         <v>11</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1431,41 +1438,41 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="1">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1">
         <v>11</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="1">
+      <c r="J12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S12" s="1">
         <v>2</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:19" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1473,43 +1480,43 @@
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>141</v>
+      <c r="H13" s="1">
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="1">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="J13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="378.9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,43 +1524,43 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="12">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <v>10</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1561,43 +1568,43 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1605,43 +1612,43 @@
         <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>141</v>
+      <c r="H16" s="1">
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>11</v>
-      </c>
-      <c r="L16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1649,43 +1656,43 @@
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>89</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>11</v>
-      </c>
-      <c r="L17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,43 +1700,43 @@
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,43 +1744,43 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1781,43 +1788,43 @@
         <v>52</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="1">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1825,43 +1832,43 @@
         <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1">
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>15</v>
-      </c>
-      <c r="L21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="1">
-        <v>3</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="J21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1869,43 +1876,43 @@
         <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>141</v>
+      <c r="H22" s="1">
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>11</v>
-      </c>
-      <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="1">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1913,43 +1920,43 @@
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>141</v>
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="1">
+        <v>60</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:19" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1957,43 +1964,44 @@
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>138</v>
+        <v>96</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="1">
+        <v>148</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2001,41 +2009,41 @@
         <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13</v>
-      </c>
-      <c r="L25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="J25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -2043,43 +2051,43 @@
         <v>67</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -2087,40 +2095,40 @@
         <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="1">
-        <v>6</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>71</v>
+      <c r="S27" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2141,6 +2149,7 @@
     <hyperlink ref="C25" r:id="rId14"/>
     <hyperlink ref="C26" r:id="rId15"/>
     <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C6" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
